--- a/12_Unique_Petro_Minerals/2_Interpretation/Tuff_Core_Analysis.xlsx
+++ b/12_Unique_Petro_Minerals/2_Interpretation/Tuff_Core_Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\@Papers\Unique_Petro\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Archive\12_Unique_Petro_Minerals\2_Interpretation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D02B6D-DD41-4FBB-B138-CD6D8F6A1499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73062ABE-F8EB-4F13-9487-D7C0E1C56F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3630D4BE-27EB-4558-A490-933084267D94}"/>
+    <workbookView xWindow="5475" yWindow="1005" windowWidth="21825" windowHeight="14355" xr2:uid="{3630D4BE-27EB-4558-A490-933084267D94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Porosity</t>
-  </si>
-  <si>
-    <t>V/V</t>
   </si>
   <si>
     <t>Permeability</t>
@@ -101,18 +96,127 @@
   <si>
     <t>ymax</t>
   </si>
+  <si>
+    <t>RQI</t>
+  </si>
+  <si>
+    <t>FZI</t>
+  </si>
+  <si>
+    <t>Normalized Porosity</t>
+  </si>
+  <si>
+    <r>
+      <t>(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Dimensionless</t>
+  </si>
+  <si>
+    <t>Norm Poro</t>
+  </si>
+  <si>
+    <t>mD/(V/V)</t>
+  </si>
+  <si>
+    <t>(V/V)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,8 +239,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2831,6 +2941,2675 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16372116920836857"/>
+          <c:y val="3.3833128808800197E-2"/>
+          <c:w val="0.77675409223439029"/>
+          <c:h val="0.86650275641915186"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coarse Grained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="10"/>
+            <c:backward val="10"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>3.8852663478045987E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9838658817988844E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1807968548767448E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.791851663657165E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4948409504010197E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1079174239935393</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1198140004810242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12229439521091448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12717458272071688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13093893943766391</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14112787037192748</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14904308010701423</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17107751765821513</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18507679831557824</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18596681299988371</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19791820874841987</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20131970326019552</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2253337118726414</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23016200568912704</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23455249018191146</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2489085866148627</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.28714803549957446</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.29470903273170296</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.31897743608241247</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3437369107761083</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.32883646950091977</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.36821749755708677</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.37924003550430246</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.42903799932191572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.22458556316930114</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.23539049473092763</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.3312553785755572</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31737404834352428</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.2883164123356845</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.30320815122616646</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36925841254102448</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.4320520535946305</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.2764431335254912E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.5459394808666772E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9995135566256577E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.9394894165423697E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.1031529418522555E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.12085199735211374</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.10479508917337299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>4.2934978295600555E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0420541032358121E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1357779510431637E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2114460403319043E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3148093907743021E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8692406558950782E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1945691411649369E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1775212452788465E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8915910429163058E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4696038032876893E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4946022886152363E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4698135021061314E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1751064937203695E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1863352791299445E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4519741766953546E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3456909143878005E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.7785548948397943E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9608723790977103E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6200461413879812E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2081273635795271E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.4295334697029527E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.9557107578235196E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8344981745909424E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.061871988224317E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6303415174864584E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4074671071132255E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0962863593353764E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.274019163523625E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.4053723497762505E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5911551190306439E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.20962367265933E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.121118274325948E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5041958976481832E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.365318273147592E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4663690382944255E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0365876914624678E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.2026671817127583E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.2895514683612014E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0569838334376974E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.1940360749976374E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.3742188069457585E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.2849334199654022E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0962608453687524E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.175539467504849E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C263-4D86-8BE4-98EF992FD93C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$128</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium Grained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="10"/>
+            <c:backward val="10"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$128:$F$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>9.3631998404351366E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1100054647981074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12192665396489147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12329407243032284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12190030341867751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1233003941578408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15296377014124071</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15846760316918942</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1542183222216216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16452598343482447</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17060498961246104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1754588157934103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18122581257944662</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17483497662290926</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19614358971850385</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21948488847581554</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23988409348250245</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23488743094906503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24947990149204416</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25888470437487499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2588046490095755</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32383283113470118</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.32470851176499599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.35022151226446918</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.44233470931708824</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24135420459811932</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21970848608100488</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.23573111064263366</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.20356481078665056</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24022549560193077</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.16302864941424799</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.16352469505187087</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.16352469505187087</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.15759993208592718</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17353523187713715</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.24418498591192356</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23685165038585071</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.34942619702623612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$128:$E$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>4.2276489150203786E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.953274036634248E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2544412634173069E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8275584291822397E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4064555646684025E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8772407560941367E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6434636053356614E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1137300675710837E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0030330594300859E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3820814525589048E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2376279643725175E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3103974636758088E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7851746285128083E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9450816323105653E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8406501752422453E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3274437523399528E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8916421850538531E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5252134779223859E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7037272462013176E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5549310475798344E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.3539282097342075E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.1599563622756247E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.9762760179930234E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1754338717305489E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6746041135619106E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5392134345588007E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.9350112046696281E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.2106858282140335E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.034782743571064E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2376283638123082E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.3025190114440834E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.829089560700486E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.4459071534546663E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.7539846320829469E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.1480537661882644E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9265539271377496E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.7212611824164822E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3904139384948293E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C263-4D86-8BE4-98EF992FD93C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fine Grained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="10"/>
+            <c:backward val="10"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$47:$F$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0.14162964933777453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1522207366894511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1487770601017962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17424128071323008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16343076587213495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18749643122549411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18640115461266221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20446437366068526</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21431487120594514</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20211336249584222</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23240428141038122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22828247643033445</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23840953630942266</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25105083013500701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24545210318878274</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27612878547980957</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27150510311950826</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27034290773623676</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.27522551609631646</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30069709060038663</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2953319761582428</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.30632421965053125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.29972877649253205</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3107913450616322</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.32065160422182393</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.33453044617267075</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32160890207598053</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.32541688802382468</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.33393315309655885</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.34153691423061028</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3513196892639146</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.35181257463160504</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.37084124812114</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.37094964171093803</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.38609056652147483</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.38609006077771918</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.3909953708591502</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.41802561840393471</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.42168362681665372</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.42363614553267681</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.42919218617912647</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.4506283625914097</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.45180069982629079</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.47424619995363626</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.46288749040515409</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.47818717474929845</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.48591939277810176</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48415473102514811</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46027518863737071</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.37700115098880327</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.35642135642135553</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.34258314629667302</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.27309664312663223</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.24656625935398213</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.20215584178313692</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.18804730522704635</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.17426608369768767</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.17479021603285075</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.17374241883695971</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.21547981897108984</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.23835513315140613</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.23197903014416693</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.27990663295078771</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.23197903014416693</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.28741929172373254</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.31311115545799223</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.36486206181290032</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.33712660028449487</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.42239515780371722</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.4270223378876597</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.4717065533437711</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.45061728395061634</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.46596858638743266</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.18965828964020859</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.14365169027548408</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.14814168556970819</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.311148749626381</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.31573685262947254</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.33441492597850275</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.36344799005387496</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.44981822187947562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$47:$E$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>5.3206762916585045E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4487538510811993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7356563877172962E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.965699186120773E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4598153049571765E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.754429370935477E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0305030679526712E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1519821164815829E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8909748486263899E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4868010974259569E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9990811708919593E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9270152362553532E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9762312620453449E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8140316622028666E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5618626326678494E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7759869290164772E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7566624013417126E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3425775266706448E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3989070508127791E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.7469409481272824E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6692673772425956E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4066821299936593E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8873421538800741E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3260354982233864E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5345836518594909E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.9981102535809455E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.789072451115108E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1717147460472387E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.616642602918689E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7335539199840372E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.7313870461017423E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.0327613091072453E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2968885575948493E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.1305155689388808E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.1758180645743255E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5770371522300177E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.6921334624221192E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.562890545857492E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.3401793874194997E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.1201492159367242E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.5035775763519774E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.4342500429418244E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.9780710979648068E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2626196821015291E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2674391997714458E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.2465429867502326E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.1978352049332318E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.3916200263788348E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.2295378477133721E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.712224109706658E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5524173224061343E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8929008624802835E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.1621288160482664E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.8109392530832195E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.0483776125872402E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.5100342815369591E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.1360102945264179E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.591976565447211E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.2502374655814432E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.3990297823049626E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.1685725521320438E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.7711362815250338E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.515937555967818E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.1905738884058034E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.549580745302896E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0469290562881291E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.1205878213593566E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.5361502428649557E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.7655968656436856E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.4029126155433231E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.4397390881439775E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.1787612940753628E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.6230714091192116E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.6561842297023503E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1355229652068605E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3923243084011327E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.5678488324517693E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.2415774336015218E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2360872544822182E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.9258408902336533E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.0046416825566767E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C263-4D86-8BE4-98EF992FD93C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1887643967"/>
+        <c:axId val="1887638143"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$183</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="181"/>
+                      <c:pt idx="0">
+                        <c:v>3.73995898012799</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.7472683920881797</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.6997046724699896</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.2286091605236296</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.8297187921446696</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9.7405656465394301</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10.699455483638999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10.8968195629215</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>11.282598514042901</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>11.5778964603315</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>12.3674019394452</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12.971061110531499</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>14.608556229507</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>15.617283080610401</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15.6806085095656</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16.5218465921145</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16.7582120491194</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18.389579074607401</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18.709893869644599</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>18.998988868213299</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>19.930088501475002</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22.3088586223204</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22.762568676137001</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24.183691650543299</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25.580670443708701</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>24.746195415935802</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26.912204983091399</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27.496304177803101</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>30.022854502504199</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>18.3397199774314</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>19.0539344227508</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>24.882932599303398</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>24.091414943431801</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>22.379316880157901</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>23.2662871960157</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>26.9677665778052</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>30.170136100159599</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>6.7828899998749996</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>7.0164801361088696</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>3.8457040998062002</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2.8555508029069299</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>7.4957600415326198</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>10.7821547927481</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>9.4854774609635992</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>12.405918979060299</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>13.2110742188871</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>12.950907993289199</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>14.838626743508501</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>14.0473133998329</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>15.789220606919899</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>15.711477849456299</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>16.975543497336002</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>17.649036200397301</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>16.813169938999099</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>18.857795685715601</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>18.5855029938858</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>19.251267801110899</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>20.067196638837999</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>19.707871748768302</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>21.638003046533299</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>21.353048639238501</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>21.281097102985399</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>21.5824975757095</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>23.118148935167401</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>22.799713246804298</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>23.449325599465599</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>23.060870999670001</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>23.710207290621</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>24.279802727439499</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>25.0672771934187</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>24.334650104943901</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>24.552040264781599</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>25.033724690129699</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>25.458629621570001</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>25.998266143467799</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>26.025247969562699</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>27.0520929122472</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>27.057860509594999</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>27.854642102529098</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>27.854615778796401</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>28.1090346560716</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>29.479412288365101</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>29.660862576075498</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>29.7573327891423</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>30.030403911355702</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>31.0643562618895</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>31.1200221821321</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>32.168724597597802</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>31.642043112758799</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>32.349568641765501</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>32.701598427194497</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>32.621580547112401</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>31.5197568389057</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>27.378419452887499</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>26.276595744680801</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>25.516717325227901</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>21.451367781155</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>19.779635258358599</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>16.816109422492399</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>15.8282674772036</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>14.8404255319148</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>14.878419452887499</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>14.8024316109422</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>17.727963525835801</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>19.2477203647416</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>18.829787234042499</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>21.869300911854101</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>18.829787234042499</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>22.325227963525801</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>23.8449848024316</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>26.732522796352502</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>25.212765957446798</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>29.696048632218801</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>29.924012158054701</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>32.051671732522799</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>31.063829787233999</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>31.785714285714199</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>15.9422492401215</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>12.560790273556201</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>12.902735562309999</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>23.731003039513599</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>23.996960486322099</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>25.060790273556201</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>26.656534954407299</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>31.025835866261399</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>8.5615635369999996</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>9.910353443</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>10.867613629999999</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>10.976117070000001</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>10.865520139999999</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>10.97661808</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>13.267005790000001</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>13.67907076</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>13.3612783</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>14.128150489999999</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>14.574087</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>14.92683652</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>15.34218188</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>14.881662540000001</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>16.397996979999999</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>17.998163859999998</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>19.34729986</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>19.020958920000002</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>19.96669984</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>20.564607980000002</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>20.559556180000001</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>24.461761599999999</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>24.51169513</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>25.938078239999999</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>30.667965379999998</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>19.442815249999999</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>18.013196480000001</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>19.07624633</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>16.913489739999999</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>19.369501469999999</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>14.017595310000001</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>14.054252200000001</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>14.054252200000001</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>13.6143695</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>14.787390029999999</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>19.626099709999998</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>19.14956012</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>25.89442815</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$B$183</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="181"/>
+                      <c:pt idx="0">
+                        <c:v>6.9924607636336997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.122405094246025</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.17922923036000099</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.38127661043414901</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.2551741540502004</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.23423261152837699</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.110745723394093</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.2404099837856499</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.71265441584897304</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.14136117151049599</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.90511816313695403</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.262842152682564</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.0459850349778299</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.2292618172391898</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.66204705342788295</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>9.2202110171265499</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.62524089458814</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>16.3512843023077</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.13026564892398901</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2.81252657172654</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>83.562005382533698</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.0947150370743599</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>7.7695620752451697</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2.7657163017491402</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>82.247385908535094</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>14.5468803346144</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>45.800540629766303</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>4.5265461091147801</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>124.93423068633901</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>39.208238993873501</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>19.908273527139698</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>3.1720872941791902</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>5.5285572537841299</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>4.2311199266970601</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>14.3543624533298</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>69.383864286874399</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>205.88663449423501</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.47273476611127402</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.79505412201360803</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.14964562689741401</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.11767508742976</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.21234176351060599</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>1.3142381567872901</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.80995914921364898</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.35620771308650101</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>1.1962664062363899</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.294578663921503</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.95495348525555301</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.28337903874242798</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>1.52371987895937</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.146348136685792</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>2.28484038185778</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>1.11461020762688</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.207321649000444</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.68833698680202404</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.161497197128595</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>1.573215097809</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.29607108705505802</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.13118739534969001</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>6.9220927105466297</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.98870113520265301</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.24115579086689101</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>4.2837105992726396</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>2.2275652328257198</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.31133561771838197</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.137755366755972</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>8.33139432750602</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>13.0109417156155</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.75432025492394095</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>2.5414625267905699</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.35434934069403701</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.117444816042498</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>6.6358141547493696</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>19.294388389976199</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.86617284593261601</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>2.1536575520313899</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>4.6147363219111499</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.46821215536926403</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>1.0775247974833599</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>7.0262197000364504</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>2.1539687928985001</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.19639012336968301</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.56668255153494795</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>29.382275978669899</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>1.7148993319379899</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.61950300871146602</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>49.948871806863202</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>5.2013928509615903</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>16.4997180429312</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.59167095080591803</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>33.917344586790598</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>63.810950945808997</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>33.3429728897557</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>8.14086012363145</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>6.4228349764516901</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>9.2730210277291008</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>10.170886843622499</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.93062131694045702</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.43468023463677002</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.32653803170518703</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>0.25748401938986798</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>0.47187632395970103</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>0.15860028060719999</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>0.34794720951103902</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>0.521508316120885</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>0.27160050374585698</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>0.27419397698476999</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>1.28119366220825</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>1.2905721079649299</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>2.6507713037623502</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>1.0157034258822499</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>0.78374887724103504</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>1.00121630954302</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>0.88596468977217102</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>38.462932541595599</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>31.8354896631235</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>68.902325927072297</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>0.216145620599521</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>1.6426669225120001</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>2.5368997839394898</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>1.3784838923784599</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>2.0786872571653401</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>3.8835931161091302</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>2.1539850325081402</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>0.50465144525915995</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>0.155199964</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>3.8349190590000002</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>0.11674217200000001</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>0.16309216300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>0.77878408600000004</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>0.26482418600000002</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>0.42855353299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>0.91335247600000002</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>0.12221061799999999</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>0.41507497300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>0.57512334700000001</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>2.5996481239999998</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>0.356306228</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>5.7104169740000001</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>0.13420447999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>0.730845356</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>7.0216478950000001</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>0.82141487000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>0.27779535900000002</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>5.0429354530000001</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>1.455244333</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>1.2718889200000001</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>61.563453279999997</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>3.63475299</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>41.999757410000001</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>0.40631332100000001</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>1.4585512469999999</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>1.6414118470000001</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>1.8368440399999999</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>9.8363746929999998</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>0.15506181899999999</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>0.20899673199999999</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>0.28175343800000002</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>0.31207126699999999</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>0.39748283600000001</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>0.48312686399999999</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>1.1579131680000001</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>5.0773283960000004</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-C263-4D86-8BE4-98EF992FD93C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1887643967"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Normalized Porosity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39534783290990044"/>
+              <c:y val="0.82903695798314925"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1887638143"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1887638143"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+          <c:min val="1.0000000000000002E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Rock Quality </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> Index</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t> (mD/ V/V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.159243713837981E-2"/>
+              <c:y val="0.12520946836234081"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1887643967"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16984203006993398"/>
+          <c:y val="4.2403506631767764E-2"/>
+          <c:w val="0.30652674767400995"/>
+          <c:h val="0.31460976879353597"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -4791,6 +7570,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5862,17 +8681,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4761</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5895,6 +9230,413 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B599AB-7A66-473A-8EE0-D894CE837ACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9677400" y="2752725"/>
+          <a:ext cx="676275" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D4EA56-51E3-424F-99A5-CC0342DC4628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9648825" y="2514600"/>
+          <a:ext cx="1190625" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D91943-B932-4F6E-A784-1F88272BACA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9658350" y="3362325"/>
+          <a:ext cx="752475" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>332740</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7D7ED4-2FEF-474A-94AC-7F84B440ED80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11410950" y="438150"/>
+          <a:ext cx="5247640" cy="3628390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF24D1CF-8463-43C0-A64E-A6FE30E82618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210800" y="3800475"/>
+          <a:ext cx="3352800" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D204D6-C8D9-4330-82EC-4314D670B5E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9829800" y="2133601"/>
+          <a:ext cx="1524000" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>395289</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4136E8DF-F895-4B85-8A90-AF8AACACF7ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6498,7 +10240,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6506,1506 +10248,2846 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFB17A2-7B02-4CE4-B935-1CEFF3F7EE8B}">
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:T165"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.73995898012799</v>
       </c>
       <c r="B3">
         <v>6.9924607636336997E-2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f>SQRT(B3/A3)*0.0314</f>
+        <v>4.2934978295600555E-3</v>
+      </c>
+      <c r="F3">
+        <f>A3/(100-A3)</f>
+        <v>3.8852663478045987E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.7472683920881797</v>
       </c>
       <c r="B4">
         <v>0.122405094246025</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="0">SQRT(B4/A4)*0.0314</f>
+        <v>5.0420541032358121E-3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="1">A4/(100-A4)</f>
+        <v>4.9838658817988844E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.6997046724699896</v>
       </c>
       <c r="B5">
         <v>0.17922923036000099</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5.1357779510431637E-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>7.1807968548767448E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.2286091605236296</v>
       </c>
       <c r="B6">
         <v>0.38127661043414901</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>7.2114460403319043E-3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>7.791851663657165E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7.8297187921446696</v>
       </c>
       <c r="B7">
         <v>4.2551741540502004</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.3148093907743021E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>8.4948409504010197E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9.7405656465394301</v>
       </c>
       <c r="B8">
         <v>0.23423261152837699</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4.8692406558950782E-3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.1079174239935393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10.699455483638999</v>
       </c>
       <c r="B9">
         <v>0.110745723394093</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3.1945691411649369E-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.1198140004810242</v>
+      </c>
+      <c r="S9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10.8968195629215</v>
       </c>
       <c r="B10">
         <v>5.2404099837856499</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2.1775212452788465E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.12229439521091448</v>
+      </c>
+      <c r="S10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11.282598514042901</v>
       </c>
       <c r="B11">
         <v>0.71265441584897304</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>7.8915910429163058E-3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.12717458272071688</v>
+      </c>
+      <c r="S11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11.5778964603315</v>
       </c>
       <c r="B12">
         <v>0.14136117151049599</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.4696038032876893E-3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.13093893943766391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.3674019394452</v>
       </c>
       <c r="B13">
         <v>0.90511816313695403</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8.4946022886152363E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.14112787037192748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.971061110531499</v>
       </c>
       <c r="B14">
         <v>0.262842152682564</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4.4698135021061314E-3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.14904308010701423</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14.608556229507</v>
       </c>
       <c r="B15">
         <v>2.0459850349778299</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.1751064937203695E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.17107751765821513</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15.617283080610401</v>
       </c>
       <c r="B16">
         <v>2.2292618172391898</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.1863352791299445E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.18507679831557824</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15.6806085095656</v>
       </c>
       <c r="B17">
         <v>0.66204705342788295</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>6.4519741766953546E-3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.18596681299988371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16.5218465921145</v>
       </c>
       <c r="B18">
         <v>9.2202110171265499</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2.3456909143878005E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.19791820874841987</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16.7582120491194</v>
       </c>
       <c r="B19">
         <v>1.62524089458814</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>9.7785548948397943E-3</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.20131970326019552</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18.389579074607401</v>
       </c>
       <c r="B20">
         <v>16.3512843023077</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.9608723790977103E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.2253337118726414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18.709893869644599</v>
       </c>
       <c r="B21">
         <v>0.13026564892398901</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.6200461413879812E-3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.23016200568912704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18.998988868213299</v>
       </c>
       <c r="B22">
         <v>2.81252657172654</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.2081273635795271E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.23455249018191146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19.930088501475002</v>
       </c>
       <c r="B23">
         <v>83.562005382533698</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>6.4295334697029527E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.2489085866148627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22.3088586223204</v>
       </c>
       <c r="B24">
         <v>1.0947150370743599</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>6.9557107578235196E-3</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.28714803549957446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22.762568676137001</v>
       </c>
       <c r="B25">
         <v>7.7695620752451697</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1.8344981745909424E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.29470903273170296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24.183691650543299</v>
       </c>
       <c r="B26">
         <v>2.7657163017491402</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1.061871988224317E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0.31897743608241247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25.580670443708701</v>
       </c>
       <c r="B27">
         <v>82.247385908535094</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>5.6303415174864584E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0.3437369107761083</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24.746195415935802</v>
       </c>
       <c r="B28">
         <v>14.5468803346144</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>2.4074671071132255E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0.32883646950091977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26.912204983091399</v>
       </c>
       <c r="B29">
         <v>45.800540629766303</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>4.0962863593353764E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0.36821749755708677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27.496304177803101</v>
       </c>
       <c r="B30">
         <v>4.5265461091147801</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1.274019163523625E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0.37924003550430246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30.022854502504199</v>
       </c>
       <c r="B31">
         <v>124.93423068633901</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>6.4053723497762505E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0.42903799932191572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>18.3397199774314</v>
       </c>
       <c r="B32">
         <v>39.208238993873501</v>
       </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>4.5911551190306439E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.22458556316930114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>19.0539344227508</v>
       </c>
       <c r="B33">
         <v>19.908273527139698</v>
       </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>3.20962367265933E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.23539049473092763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24.882932599303398</v>
       </c>
       <c r="B34">
         <v>3.1720872941791902</v>
       </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1.121118274325948E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.3312553785755572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>24.091414943431801</v>
       </c>
       <c r="B35">
         <v>5.5285572537841299</v>
       </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.5041958976481832E-2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.31737404834352428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>22.379316880157901</v>
       </c>
       <c r="B36">
         <v>4.2311199266970601</v>
       </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1.365318273147592E-2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.2883164123356845</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>23.2662871960157</v>
       </c>
       <c r="B37">
         <v>14.3543624533298</v>
       </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>2.4663690382944255E-2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0.30320815122616646</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>26.9677665778052</v>
       </c>
       <c r="B38">
         <v>69.383864286874399</v>
       </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>5.0365876914624678E-2</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.36925841254102448</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>30.170136100159599</v>
       </c>
       <c r="B39">
         <v>205.88663449423501</v>
       </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>8.2026671817127583E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>0.4320520535946305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6.7828899998749996</v>
       </c>
       <c r="B40">
         <v>0.47273476611127402</v>
       </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>8.2895514683612014E-3</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>7.2764431335254912E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7.0164801361088696</v>
       </c>
       <c r="B41">
         <v>0.79505412201360803</v>
       </c>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1.0569838334376974E-2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>7.5459394808666772E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3.8457040998062002</v>
       </c>
       <c r="B42">
         <v>0.14964562689741401</v>
       </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>6.1940360749976374E-3</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>3.9995135566256577E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2.8555508029069299</v>
       </c>
       <c r="B43">
         <v>0.11767508742976</v>
       </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>6.3742188069457585E-3</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>2.9394894165423697E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7.4957600415326198</v>
       </c>
       <c r="B44">
         <v>0.21234176351060599</v>
       </c>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>5.2849334199654022E-3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>8.1031529418522555E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10.7821547927481</v>
       </c>
       <c r="B45">
         <v>1.3142381567872901</v>
       </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1.0962608453687524E-2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>0.12085199735211374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9.4854774609635992</v>
       </c>
       <c r="B46">
         <v>0.80995914921364898</v>
       </c>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>9.175539467504849E-3</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0.10479508917337299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12.405918979060299</v>
       </c>
       <c r="B47">
         <v>0.35620771308650101</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>5.3206762916585045E-3</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>0.14162964933777453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>13.2110742188871</v>
       </c>
       <c r="B48">
         <v>1.1962664062363899</v>
       </c>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>9.4487538510811993E-3</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0.1522207366894511</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12.950907993289199</v>
       </c>
       <c r="B49">
         <v>0.294578663921503</v>
       </c>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>4.7356563877172962E-3</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>0.1487770601017962</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14.838626743508501</v>
       </c>
       <c r="B50">
         <v>0.95495348525555301</v>
       </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>7.965699186120773E-3</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>0.17424128071323008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14.0473133998329</v>
       </c>
       <c r="B51">
         <v>0.28337903874242798</v>
       </c>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>4.4598153049571765E-3</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>0.16343076587213495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15.789220606919899</v>
       </c>
       <c r="B52">
         <v>1.52371987895937</v>
       </c>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>9.754429370935477E-3</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0.18749643122549411</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>15.711477849456299</v>
       </c>
       <c r="B53">
         <v>0.146348136685792</v>
       </c>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>3.0305030679526712E-3</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>0.18640115461266221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>16.975543497336002</v>
       </c>
       <c r="B54">
         <v>2.28484038185778</v>
       </c>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>1.1519821164815829E-2</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>0.20446437366068526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>17.649036200397301</v>
       </c>
       <c r="B55">
         <v>1.11461020762688</v>
       </c>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>7.8909748486263899E-3</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>0.21431487120594514</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16.813169938999099</v>
       </c>
       <c r="B56">
         <v>0.207321649000444</v>
       </c>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>3.4868010974259569E-3</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>0.20211336249584222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>18.857795685715601</v>
       </c>
       <c r="B57">
         <v>0.68833698680202404</v>
       </c>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>5.9990811708919593E-3</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>0.23240428141038122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>18.5855029938858</v>
       </c>
       <c r="B58">
         <v>0.161497197128595</v>
       </c>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>2.9270152362553532E-3</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>0.22828247643033445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>19.251267801110899</v>
       </c>
       <c r="B59">
         <v>1.573215097809</v>
       </c>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>8.9762312620453449E-3</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>0.23840953630942266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20.067196638837999</v>
       </c>
       <c r="B60">
         <v>0.29607108705505802</v>
       </c>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>3.8140316622028666E-3</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>0.25105083013500701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>19.707871748768302</v>
       </c>
       <c r="B61">
         <v>0.13118739534969001</v>
       </c>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>2.5618626326678494E-3</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>0.24545210318878274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>21.638003046533299</v>
       </c>
       <c r="B62">
         <v>6.9220927105466297</v>
       </c>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>1.7759869290164772E-2</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>0.27612878547980957</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>21.353048639238501</v>
       </c>
       <c r="B63">
         <v>0.98870113520265301</v>
       </c>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>6.7566624013417126E-3</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>0.27150510311950826</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>21.281097102985399</v>
       </c>
       <c r="B64">
         <v>0.24115579086689101</v>
       </c>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>3.3425775266706448E-3</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>0.27034290773623676</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>21.5824975757095</v>
       </c>
       <c r="B65">
         <v>4.2837105992726396</v>
       </c>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>1.3989070508127791E-2</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>0.27522551609631646</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>23.118148935167401</v>
       </c>
       <c r="B66">
         <v>2.2275652328257198</v>
       </c>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>9.7469409481272824E-3</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>0.30069709060038663</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>22.799713246804298</v>
       </c>
       <c r="B67">
         <v>0.31133561771838197</v>
       </c>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>3.6692673772425956E-3</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>0.2953319761582428</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>23.449325599465599</v>
       </c>
       <c r="B68">
         <v>0.137755366755972</v>
       </c>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+      <c r="E68">
+        <f t="shared" ref="E68:E131" si="2">SQRT(B68/A68)*0.0314</f>
+        <v>2.4066821299936593E-3</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F131" si="3">A68/(100-A68)</f>
+        <v>0.30632421965053125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>23.060870999670001</v>
       </c>
       <c r="B69">
         <v>8.33139432750602</v>
       </c>
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>1.8873421538800741E-2</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>0.29972877649253205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>23.710207290621</v>
       </c>
       <c r="B70">
         <v>13.0109417156155</v>
       </c>
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>2.3260354982233864E-2</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>0.3107913450616322</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>24.279802727439499</v>
       </c>
       <c r="B71">
         <v>0.75432025492394095</v>
       </c>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+      <c r="E71">
+        <f t="shared" si="2"/>
+        <v>5.5345836518594909E-3</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="3"/>
+        <v>0.32065160422182393</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>25.0672771934187</v>
       </c>
       <c r="B72">
         <v>2.5414625267905699</v>
       </c>
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+      <c r="E72">
+        <f t="shared" si="2"/>
+        <v>9.9981102535809455E-3</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="3"/>
+        <v>0.33453044617267075</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>24.334650104943901</v>
       </c>
       <c r="B73">
         <v>0.35434934069403701</v>
       </c>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+      <c r="E73">
+        <f t="shared" si="2"/>
+        <v>3.789072451115108E-3</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="3"/>
+        <v>0.32160890207598053</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>24.552040264781599</v>
       </c>
       <c r="B74">
         <v>0.117444816042498</v>
       </c>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+      <c r="E74">
+        <f t="shared" si="2"/>
+        <v>2.1717147460472387E-3</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>0.32541688802382468</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>25.033724690129699</v>
       </c>
       <c r="B75">
         <v>6.6358141547493696</v>
       </c>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+      <c r="E75">
+        <f t="shared" si="2"/>
+        <v>1.616642602918689E-2</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="3"/>
+        <v>0.33393315309655885</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>25.458629621570001</v>
       </c>
       <c r="B76">
         <v>19.294388389976199</v>
       </c>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+      <c r="E76">
+        <f t="shared" si="2"/>
+        <v>2.7335539199840372E-2</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="3"/>
+        <v>0.34153691423061028</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>25.998266143467799</v>
       </c>
       <c r="B77">
         <v>0.86617284593261601</v>
       </c>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+      <c r="E77">
+        <f t="shared" si="2"/>
+        <v>5.7313870461017423E-3</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="3"/>
+        <v>0.3513196892639146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>26.025247969562699</v>
       </c>
       <c r="B78">
         <v>2.1536575520313899</v>
       </c>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+      <c r="E78">
+        <f t="shared" si="2"/>
+        <v>9.0327613091072453E-3</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="3"/>
+        <v>0.35181257463160504</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>27.0520929122472</v>
       </c>
       <c r="B79">
         <v>4.6147363219111499</v>
       </c>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+      <c r="E79">
+        <f t="shared" si="2"/>
+        <v>1.2968885575948493E-2</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="3"/>
+        <v>0.37084124812114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>27.057860509594999</v>
       </c>
       <c r="B80">
         <v>0.46821215536926403</v>
       </c>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+      <c r="E80">
+        <f t="shared" si="2"/>
+        <v>4.1305155689388808E-3</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="3"/>
+        <v>0.37094964171093803</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>27.854642102529098</v>
       </c>
       <c r="B81">
         <v>1.0775247974833599</v>
       </c>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+      <c r="E81">
+        <f t="shared" si="2"/>
+        <v>6.1758180645743255E-3</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="3"/>
+        <v>0.38609056652147483</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>27.854615778796401</v>
       </c>
       <c r="B82">
         <v>7.0262197000364504</v>
       </c>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+      <c r="E82">
+        <f t="shared" si="2"/>
+        <v>1.5770371522300177E-2</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="3"/>
+        <v>0.38609006077771918</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>28.1090346560716</v>
       </c>
       <c r="B83">
         <v>2.1539687928985001</v>
       </c>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+      <c r="E83">
+        <f t="shared" si="2"/>
+        <v>8.6921334624221192E-3</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="3"/>
+        <v>0.3909953708591502</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>29.479412288365101</v>
       </c>
       <c r="B84">
         <v>0.19639012336968301</v>
       </c>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+      <c r="E84">
+        <f t="shared" si="2"/>
+        <v>2.562890545857492E-3</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="3"/>
+        <v>0.41802561840393471</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>29.660862576075498</v>
       </c>
       <c r="B85">
         <v>0.56668255153494795</v>
       </c>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+      <c r="E85">
+        <f t="shared" si="2"/>
+        <v>4.3401793874194997E-3</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="3"/>
+        <v>0.42168362681665372</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>29.7573327891423</v>
       </c>
       <c r="B86">
         <v>29.382275978669899</v>
       </c>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+      <c r="E86">
+        <f t="shared" si="2"/>
+        <v>3.1201492159367242E-2</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="3"/>
+        <v>0.42363614553267681</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>30.030403911355702</v>
       </c>
       <c r="B87">
         <v>1.7148993319379899</v>
       </c>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+      <c r="E87">
+        <f t="shared" si="2"/>
+        <v>7.5035775763519774E-3</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="3"/>
+        <v>0.42919218617912647</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>31.0643562618895</v>
       </c>
       <c r="B88">
         <v>0.61950300871146602</v>
       </c>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+      <c r="E88">
+        <f t="shared" si="2"/>
+        <v>4.4342500429418244E-3</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="3"/>
+        <v>0.4506283625914097</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>31.1200221821321</v>
       </c>
       <c r="B89">
         <v>49.948871806863202</v>
       </c>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+      <c r="E89">
+        <f t="shared" si="2"/>
+        <v>3.9780710979648068E-2</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="3"/>
+        <v>0.45180069982629079</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>32.168724597597802</v>
       </c>
       <c r="B90">
         <v>5.2013928509615903</v>
       </c>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+      <c r="E90">
+        <f t="shared" si="2"/>
+        <v>1.2626196821015291E-2</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="3"/>
+        <v>0.47424619995363626</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>31.642043112758799</v>
       </c>
       <c r="B91">
         <v>16.4997180429312</v>
       </c>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+      <c r="E91">
+        <f t="shared" si="2"/>
+        <v>2.2674391997714458E-2</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="3"/>
+        <v>0.46288749040515409</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>32.349568641765501</v>
       </c>
       <c r="B92">
         <v>0.59167095080591803</v>
       </c>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+      <c r="E92">
+        <f t="shared" si="2"/>
+        <v>4.2465429867502326E-3</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="3"/>
+        <v>0.47818717474929845</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>32.701598427194497</v>
       </c>
       <c r="B93">
         <v>33.917344586790598</v>
       </c>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+      <c r="E93">
+        <f t="shared" si="2"/>
+        <v>3.1978352049332318E-2</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="3"/>
+        <v>0.48591939277810176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>32.621580547112401</v>
       </c>
       <c r="B94">
         <v>63.810950945808997</v>
       </c>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+      <c r="E94">
+        <f t="shared" si="2"/>
+        <v>4.3916200263788348E-2</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="3"/>
+        <v>0.48415473102514811</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>31.5197568389057</v>
       </c>
       <c r="B95">
         <v>33.3429728897557</v>
       </c>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+      <c r="E95">
+        <f t="shared" si="2"/>
+        <v>3.2295378477133721E-2</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="3"/>
+        <v>0.46027518863737071</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>27.378419452887499</v>
       </c>
       <c r="B96">
         <v>8.14086012363145</v>
       </c>
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+      <c r="E96">
+        <f t="shared" si="2"/>
+        <v>1.712224109706658E-2</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="3"/>
+        <v>0.37700115098880327</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>26.276595744680801</v>
       </c>
       <c r="B97">
         <v>6.4228349764516901</v>
       </c>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+      <c r="E97">
+        <f t="shared" si="2"/>
+        <v>1.5524173224061343E-2</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="3"/>
+        <v>0.35642135642135553</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>25.516717325227901</v>
       </c>
       <c r="B98">
         <v>9.2730210277291008</v>
       </c>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+      <c r="E98">
+        <f t="shared" si="2"/>
+        <v>1.8929008624802835E-2</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="3"/>
+        <v>0.34258314629667302</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>21.451367781155</v>
       </c>
       <c r="B99">
         <v>10.170886843622499</v>
       </c>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+      <c r="E99">
+        <f t="shared" si="2"/>
+        <v>2.1621288160482664E-2</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="3"/>
+        <v>0.27309664312663223</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>19.779635258358599</v>
       </c>
       <c r="B100">
         <v>0.93062131694045702</v>
       </c>
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+      <c r="E100">
+        <f t="shared" si="2"/>
+        <v>6.8109392530832195E-3</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="3"/>
+        <v>0.24656625935398213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>16.816109422492399</v>
       </c>
       <c r="B101">
         <v>0.43468023463677002</v>
       </c>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+      <c r="E101">
+        <f t="shared" si="2"/>
+        <v>5.0483776125872402E-3</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="3"/>
+        <v>0.20215584178313692</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>15.8282674772036</v>
       </c>
       <c r="B102">
         <v>0.32653803170518703</v>
       </c>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+      <c r="E102">
+        <f t="shared" si="2"/>
+        <v>4.5100342815369591E-3</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="3"/>
+        <v>0.18804730522704635</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>14.8404255319148</v>
       </c>
       <c r="B103">
         <v>0.25748401938986798</v>
       </c>
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+      <c r="E103">
+        <f t="shared" si="2"/>
+        <v>4.1360102945264179E-3</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="3"/>
+        <v>0.17426608369768767</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>14.878419452887499</v>
       </c>
       <c r="B104">
         <v>0.47187632395970103</v>
       </c>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+      <c r="E104">
+        <f t="shared" si="2"/>
+        <v>5.591976565447211E-3</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="3"/>
+        <v>0.17479021603285075</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>14.8024316109422</v>
       </c>
       <c r="B105">
         <v>0.15860028060719999</v>
       </c>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+      <c r="E105">
+        <f t="shared" si="2"/>
+        <v>3.2502374655814432E-3</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="3"/>
+        <v>0.17374241883695971</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>17.727963525835801</v>
       </c>
       <c r="B106">
         <v>0.34794720951103902</v>
       </c>
-      <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+      <c r="E106">
+        <f t="shared" si="2"/>
+        <v>4.3990297823049626E-3</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="3"/>
+        <v>0.21547981897108984</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>19.2477203647416</v>
       </c>
       <c r="B107">
         <v>0.521508316120885</v>
       </c>
-      <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+      <c r="E107">
+        <f t="shared" si="2"/>
+        <v>5.1685725521320438E-3</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="3"/>
+        <v>0.23835513315140613</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>18.829787234042499</v>
       </c>
       <c r="B108">
         <v>0.27160050374585698</v>
       </c>
-      <c r="C108" s="1"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+      <c r="E108">
+        <f t="shared" si="2"/>
+        <v>3.7711362815250338E-3</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="3"/>
+        <v>0.23197903014416693</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>21.869300911854101</v>
       </c>
       <c r="B109">
         <v>0.27419397698476999</v>
       </c>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+      <c r="E109">
+        <f t="shared" si="2"/>
+        <v>3.515937555967818E-3</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="3"/>
+        <v>0.27990663295078771</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>18.829787234042499</v>
       </c>
       <c r="B110">
         <v>1.28119366220825</v>
       </c>
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+      <c r="E110">
+        <f t="shared" si="2"/>
+        <v>8.1905738884058034E-3</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="3"/>
+        <v>0.23197903014416693</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>22.325227963525801</v>
       </c>
       <c r="B111">
         <v>1.2905721079649299</v>
       </c>
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+      <c r="E111">
+        <f t="shared" si="2"/>
+        <v>7.549580745302896E-3</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="3"/>
+        <v>0.28741929172373254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>23.8449848024316</v>
       </c>
       <c r="B112">
         <v>2.6507713037623502</v>
       </c>
-      <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+      <c r="E112">
+        <f t="shared" si="2"/>
+        <v>1.0469290562881291E-2</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="3"/>
+        <v>0.31311115545799223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>26.732522796352502</v>
       </c>
       <c r="B113">
         <v>1.0157034258822499</v>
       </c>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+      <c r="E113">
+        <f t="shared" si="2"/>
+        <v>6.1205878213593566E-3</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="3"/>
+        <v>0.36486206181290032</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>25.212765957446798</v>
       </c>
       <c r="B114">
         <v>0.78374887724103504</v>
       </c>
-      <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+      <c r="E114">
+        <f t="shared" si="2"/>
+        <v>5.5361502428649557E-3</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="3"/>
+        <v>0.33712660028449487</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>29.696048632218801</v>
       </c>
       <c r="B115">
         <v>1.00121630954302</v>
       </c>
-      <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+      <c r="E115">
+        <f t="shared" si="2"/>
+        <v>5.7655968656436856E-3</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="3"/>
+        <v>0.42239515780371722</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>29.924012158054701</v>
       </c>
       <c r="B116">
         <v>0.88596468977217102</v>
       </c>
-      <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+      <c r="E116">
+        <f t="shared" si="2"/>
+        <v>5.4029126155433231E-3</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="3"/>
+        <v>0.4270223378876597</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>32.051671732522799</v>
       </c>
       <c r="B117">
         <v>38.462932541595599</v>
       </c>
-      <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+      <c r="E117">
+        <f t="shared" si="2"/>
+        <v>3.4397390881439775E-2</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="3"/>
+        <v>0.4717065533437711</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>31.063829787233999</v>
       </c>
       <c r="B118">
         <v>31.8354896631235</v>
       </c>
-      <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+      <c r="E118">
+        <f t="shared" si="2"/>
+        <v>3.1787612940753628E-2</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="3"/>
+        <v>0.45061728395061634</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>31.785714285714199</v>
       </c>
       <c r="B119">
         <v>68.902325927072297</v>
       </c>
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+      <c r="E119">
+        <f t="shared" si="2"/>
+        <v>4.6230714091192116E-2</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="3"/>
+        <v>0.46596858638743266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>15.9422492401215</v>
       </c>
       <c r="B120">
         <v>0.216145620599521</v>
       </c>
-      <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+      <c r="E120">
+        <f t="shared" si="2"/>
+        <v>3.6561842297023503E-3</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="3"/>
+        <v>0.18965828964020859</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>12.560790273556201</v>
       </c>
       <c r="B121">
         <v>1.6426669225120001</v>
       </c>
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+      <c r="E121">
+        <f t="shared" si="2"/>
+        <v>1.1355229652068605E-2</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="3"/>
+        <v>0.14365169027548408</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>12.902735562309999</v>
       </c>
       <c r="B122">
         <v>2.5368997839394898</v>
       </c>
-      <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+      <c r="E122">
+        <f t="shared" si="2"/>
+        <v>1.3923243084011327E-2</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="3"/>
+        <v>0.14814168556970819</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>23.731003039513599</v>
       </c>
       <c r="B123">
         <v>1.3784838923784599</v>
       </c>
-      <c r="C123" s="1"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+      <c r="E123">
+        <f t="shared" si="2"/>
+        <v>7.5678488324517693E-3</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="3"/>
+        <v>0.311148749626381</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>23.996960486322099</v>
       </c>
       <c r="B124">
         <v>2.0786872571653401</v>
       </c>
-      <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+      <c r="E124">
+        <f t="shared" si="2"/>
+        <v>9.2415774336015218E-3</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="3"/>
+        <v>0.31573685262947254</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>25.060790273556201</v>
       </c>
       <c r="B125">
         <v>3.8835931161091302</v>
       </c>
-      <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+      <c r="E125">
+        <f t="shared" si="2"/>
+        <v>1.2360872544822182E-2</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="3"/>
+        <v>0.33441492597850275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>26.656534954407299</v>
       </c>
       <c r="B126">
         <v>2.1539850325081402</v>
       </c>
-      <c r="C126" s="1"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+      <c r="E126">
+        <f t="shared" si="2"/>
+        <v>8.9258408902336533E-3</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="3"/>
+        <v>0.36344799005387496</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>31.025835866261399</v>
       </c>
       <c r="B127">
         <v>0.50465144525915995</v>
       </c>
-      <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+      <c r="E127">
+        <f t="shared" si="2"/>
+        <v>4.0046416825566767E-3</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="3"/>
+        <v>0.44981822187947562</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8.5615635369999996</v>
       </c>
       <c r="B128">
         <v>0.155199964</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="2"/>
+        <v>4.2276489150203786E-3</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="3"/>
+        <v>9.3631998404351366E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>9.910353443</v>
       </c>
       <c r="B129">
         <v>3.8349190590000002</v>
       </c>
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+      <c r="E129">
+        <f t="shared" si="2"/>
+        <v>1.953274036634248E-2</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="3"/>
+        <v>0.1100054647981074</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>10.867613629999999</v>
       </c>
       <c r="B130">
         <v>0.11674217200000001</v>
       </c>
-      <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+      <c r="E130">
+        <f t="shared" si="2"/>
+        <v>3.2544412634173069E-3</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="3"/>
+        <v>0.12192665396489147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>10.976117070000001</v>
       </c>
       <c r="B131">
         <v>0.16309216300000001</v>
       </c>
-      <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+      <c r="E131">
+        <f t="shared" si="2"/>
+        <v>3.8275584291822397E-3</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="3"/>
+        <v>0.12329407243032284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>10.865520139999999</v>
       </c>
       <c r="B132">
         <v>0.77878408600000004</v>
       </c>
-      <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+      <c r="E132">
+        <f t="shared" ref="E132:E165" si="4">SQRT(B132/A132)*0.0314</f>
+        <v>8.4064555646684025E-3</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ref="F132:F165" si="5">A132/(100-A132)</f>
+        <v>0.12190030341867751</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>10.97661808</v>
       </c>
       <c r="B133">
         <v>0.26482418600000002</v>
       </c>
-      <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+      <c r="E133">
+        <f t="shared" si="4"/>
+        <v>4.8772407560941367E-3</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="5"/>
+        <v>0.1233003941578408</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>13.267005790000001</v>
       </c>
       <c r="B134">
         <v>0.42855353299999999</v>
       </c>
-      <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+      <c r="E134">
+        <f t="shared" si="4"/>
+        <v>5.6434636053356614E-3</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="5"/>
+        <v>0.15296377014124071</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>13.67907076</v>
       </c>
       <c r="B135">
         <v>0.91335247600000002</v>
       </c>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+      <c r="E135">
+        <f t="shared" si="4"/>
+        <v>8.1137300675710837E-3</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="5"/>
+        <v>0.15846760316918942</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>13.3612783</v>
       </c>
       <c r="B136">
         <v>0.12221061799999999</v>
       </c>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+      <c r="E136">
+        <f t="shared" si="4"/>
+        <v>3.0030330594300859E-3</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="5"/>
+        <v>0.1542183222216216</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>14.128150489999999</v>
       </c>
       <c r="B137">
         <v>0.41507497300000001</v>
       </c>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+      <c r="E137">
+        <f t="shared" si="4"/>
+        <v>5.3820814525589048E-3</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="5"/>
+        <v>0.16452598343482447</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>14.574087</v>
       </c>
       <c r="B138">
         <v>0.57512334700000001</v>
       </c>
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+      <c r="E138">
+        <f t="shared" si="4"/>
+        <v>6.2376279643725175E-3</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="5"/>
+        <v>0.17060498961246104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>14.92683652</v>
       </c>
       <c r="B139">
         <v>2.5996481239999998</v>
       </c>
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+      <c r="E139">
+        <f t="shared" si="4"/>
+        <v>1.3103974636758088E-2</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="5"/>
+        <v>0.1754588157934103</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>15.34218188</v>
       </c>
       <c r="B140">
         <v>0.356306228</v>
       </c>
-      <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+      <c r="E140">
+        <f t="shared" si="4"/>
+        <v>4.7851746285128083E-3</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="5"/>
+        <v>0.18122581257944662</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>14.881662540000001</v>
       </c>
       <c r="B141">
         <v>5.7104169740000001</v>
       </c>
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+      <c r="E141">
+        <f t="shared" si="4"/>
+        <v>1.9450816323105653E-2</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="5"/>
+        <v>0.17483497662290926</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>16.397996979999999</v>
       </c>
       <c r="B142">
         <v>0.13420447999999999</v>
       </c>
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+      <c r="E142">
+        <f t="shared" si="4"/>
+        <v>2.8406501752422453E-3</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="5"/>
+        <v>0.19614358971850385</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>17.998163859999998</v>
       </c>
       <c r="B143">
         <v>0.730845356</v>
       </c>
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+      <c r="E143">
+        <f t="shared" si="4"/>
+        <v>6.3274437523399528E-3</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="5"/>
+        <v>0.21948488847581554</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>19.34729986</v>
       </c>
       <c r="B144">
         <v>7.0216478950000001</v>
       </c>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+      <c r="E144">
+        <f t="shared" si="4"/>
+        <v>1.8916421850538531E-2</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="5"/>
+        <v>0.23988409348250245</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>19.020958920000002</v>
       </c>
       <c r="B145">
         <v>0.82141487000000002</v>
       </c>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+      <c r="E145">
+        <f t="shared" si="4"/>
+        <v>6.5252134779223859E-3</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="5"/>
+        <v>0.23488743094906503</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>19.96669984</v>
       </c>
       <c r="B146">
         <v>0.27779535900000002</v>
       </c>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+      <c r="E146">
+        <f t="shared" si="4"/>
+        <v>3.7037272462013176E-3</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="5"/>
+        <v>0.24947990149204416</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>20.564607980000002</v>
       </c>
       <c r="B147">
         <v>5.0429354530000001</v>
       </c>
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+      <c r="E147">
+        <f t="shared" si="4"/>
+        <v>1.5549310475798344E-2</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="5"/>
+        <v>0.25888470437487499</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>20.559556180000001</v>
       </c>
       <c r="B148">
         <v>1.455244333</v>
       </c>
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+      <c r="E148">
+        <f t="shared" si="4"/>
+        <v>8.3539282097342075E-3</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="5"/>
+        <v>0.2588046490095755</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>24.461761599999999</v>
       </c>
       <c r="B149">
         <v>1.2718889200000001</v>
       </c>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+      <c r="E149">
+        <f t="shared" si="4"/>
+        <v>7.1599563622756247E-3</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="5"/>
+        <v>0.32383283113470118</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>24.51169513</v>
       </c>
       <c r="B150">
         <v>61.563453279999997</v>
       </c>
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+      <c r="E150">
+        <f t="shared" si="4"/>
+        <v>4.9762760179930234E-2</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="5"/>
+        <v>0.32470851176499599</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>25.938078239999999</v>
       </c>
       <c r="B151">
         <v>3.63475299</v>
       </c>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+      <c r="E151">
+        <f t="shared" si="4"/>
+        <v>1.1754338717305489E-2</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="5"/>
+        <v>0.35022151226446918</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>30.667965379999998</v>
       </c>
       <c r="B152">
         <v>41.999757410000001</v>
       </c>
-      <c r="C152" s="1"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+      <c r="E152">
+        <f t="shared" si="4"/>
+        <v>3.6746041135619106E-2</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="5"/>
+        <v>0.44233470931708824</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>19.442815249999999</v>
       </c>
       <c r="B153">
         <v>0.40631332100000001</v>
       </c>
-      <c r="C153" s="1"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+      <c r="E153">
+        <f t="shared" si="4"/>
+        <v>4.5392134345588007E-3</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="5"/>
+        <v>0.24135420459811932</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>18.013196480000001</v>
       </c>
       <c r="B154">
         <v>1.4585512469999999</v>
       </c>
-      <c r="C154" s="1"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+      <c r="E154">
+        <f t="shared" si="4"/>
+        <v>8.9350112046696281E-3</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="5"/>
+        <v>0.21970848608100488</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>19.07624633</v>
       </c>
       <c r="B155">
         <v>1.6414118470000001</v>
       </c>
-      <c r="C155" s="1"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+      <c r="E155">
+        <f t="shared" si="4"/>
+        <v>9.2106858282140335E-3</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="5"/>
+        <v>0.23573111064263366</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>16.913489739999999</v>
       </c>
       <c r="B156">
         <v>1.8368440399999999</v>
       </c>
-      <c r="C156" s="1"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+      <c r="E156">
+        <f t="shared" si="4"/>
+        <v>1.034782743571064E-2</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="5"/>
+        <v>0.20356481078665056</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>19.369501469999999</v>
       </c>
       <c r="B157">
         <v>9.8363746929999998</v>
       </c>
-      <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+      <c r="E157">
+        <f t="shared" si="4"/>
+        <v>2.2376283638123082E-2</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="5"/>
+        <v>0.24022549560193077</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>14.017595310000001</v>
       </c>
       <c r="B158">
         <v>0.15506181899999999</v>
       </c>
-      <c r="C158" s="1"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+      <c r="E158">
+        <f t="shared" si="4"/>
+        <v>3.3025190114440834E-3</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="5"/>
+        <v>0.16302864941424799</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>14.054252200000001</v>
       </c>
       <c r="B159">
         <v>0.20899673199999999</v>
       </c>
-      <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+      <c r="E159">
+        <f t="shared" si="4"/>
+        <v>3.829089560700486E-3</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="5"/>
+        <v>0.16352469505187087</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>14.054252200000001</v>
       </c>
       <c r="B160">
         <v>0.28175343800000002</v>
       </c>
-      <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+      <c r="E160">
+        <f t="shared" si="4"/>
+        <v>4.4459071534546663E-3</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="5"/>
+        <v>0.16352469505187087</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>13.6143695</v>
       </c>
       <c r="B161">
         <v>0.31207126699999999</v>
       </c>
-      <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+      <c r="E161">
+        <f t="shared" si="4"/>
+        <v>4.7539846320829469E-3</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="5"/>
+        <v>0.15759993208592718</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>14.787390029999999</v>
       </c>
       <c r="B162">
         <v>0.39748283600000001</v>
       </c>
-      <c r="C162" s="1"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+      <c r="E162">
+        <f t="shared" si="4"/>
+        <v>5.1480537661882644E-3</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="5"/>
+        <v>0.17353523187713715</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>19.626099709999998</v>
       </c>
       <c r="B163">
         <v>0.48312686399999999</v>
       </c>
-      <c r="C163" s="1"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+      <c r="E163">
+        <f t="shared" si="4"/>
+        <v>4.9265539271377496E-3</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="5"/>
+        <v>0.24418498591192356</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>19.14956012</v>
       </c>
       <c r="B164">
         <v>1.1579131680000001</v>
       </c>
-      <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+      <c r="E164">
+        <f t="shared" si="4"/>
+        <v>7.7212611824164822E-3</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="5"/>
+        <v>0.23685165038585071</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>25.89442815</v>
       </c>
       <c r="B165">
         <v>5.0773283960000004</v>
       </c>
-      <c r="C165" s="1"/>
+      <c r="C165" s="3"/>
+      <c r="E165">
+        <f t="shared" si="4"/>
+        <v>1.3904139384948293E-2</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="5"/>
+        <v>0.34942619702623612</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8014,7 +13096,8 @@
     <mergeCell ref="C128:C165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8022,7 +13105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466ED283-A47B-4BEC-8E41-E1DDFF840E39}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
@@ -8033,22 +13116,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
       <c r="I1">
         <v>0.38</v>
@@ -8074,7 +13157,7 @@
         <v>4785.5967755109095</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2">
         <v>5.0000000000000001E-4</v>
@@ -8140,16 +13223,16 @@
         <v>1646.1405274985618</v>
       </c>
       <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8612,7 +13695,7 @@
         <v>3137.1967646819089</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19">
         <v>-1.68</v>
@@ -8638,7 +13721,7 @@
         <v>167.64284283801734</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20">
         <v>-1.9</v>
@@ -8664,7 +13747,7 @@
         <v>581.17706906552769</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21">
         <v>-2.2000000000000002</v>
